--- a/src/main/resources/calc/testing.xlsx
+++ b/src/main/resources/calc/testing.xlsx
@@ -8,23 +8,165 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Buchungsübersicht" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hilfstabellen" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Buchungsübersicht!$A$1:$E$32</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+  <si>
+    <t xml:space="preserve">Unterkunft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bergtraum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unterkunft pro Tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosten pro Person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Von</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geburtsdatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rabattklasse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mustermann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schnitt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Müller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strasser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rabattklasse der Gruppe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamtkosten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ermäßigung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endbetrag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hilfstabelle 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferienhaus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straße</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosten pro Person (Tagespauschale)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahornweg 255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5700 Zell am See</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seeparadies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ried 4513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5350 Ried</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citytrip-Wien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wildbärengasse 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1210 Wien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hilfstabelle 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hilfstabelle 3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="[$€-C07]\ #,##0.00;[RED]\-[$€-C07]\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="168" formatCode="0.00\ %"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -46,13 +188,25 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
-      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -61,76 +215,64 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF158466"/>
-        <bgColor rgb="FF008080"/>
+        <fgColor rgb="FF5EB91E"/>
+        <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00A933"/>
-        <bgColor rgb="FF158466"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FFACB20C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBE33D"/>
-        <bgColor rgb="FF81D41A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF6D"/>
-        <bgColor rgb="FFFFFF38"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF38"/>
-        <bgColor rgb="FFFFFF6D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF38"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFACB20C"/>
-        <bgColor rgb="FFE8A202"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF972F"/>
-        <bgColor rgb="FFE8A202"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE8A202"/>
-        <bgColor rgb="FFFF972F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE994"/>
-        <bgColor rgb="FFFFFF6D"/>
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -160,52 +302,96 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -221,7 +407,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -231,9 +417,9 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFACB20C"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF158466"/>
+      <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
@@ -241,12 +427,12 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF972F"/>
+      <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF38"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -255,24 +441,24 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF6D"/>
+      <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFE994"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF81D41A"/>
-      <rgbColor rgb="FFBBE33D"/>
-      <rgbColor rgb="FFE8A202"/>
+      <rgbColor rgb="FF5EB91E"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00A933"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -286,57 +472,722 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.89"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="str">
+        <f aca="false">CONCATENATE("Ferienhaus ",B6)</f>
+        <v>Ferienhaus Bergtraum</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
+      <c r="A3" s="2" t="str">
+        <f aca="false">CONCATENATE("Anschrift: ",VLOOKUP(B6,Hilfstabellen!A3:D5,2,0),", ",VLOOKUP(B6,Hilfstabellen!A3:D5,3,0))</f>
+        <v>Anschrift: Ahornweg 255, 5700 Zell am See</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3" t="str">
+        <f aca="false">CONCATENATE("Email: ",VLOOKUP(B6,Hilfstabellen!A3:D5,4,0))</f>
+        <v>Email: info.bergtraum@ferienhäuser.at</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <f aca="false">VLOOKUP(B6,Hilfstabellen!A3:E5,5,0)</f>
+        <v>120</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <f aca="false">VLOOKUP(B6,Hilfstabellen!A3:F5,6,0)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <v>44218</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8"/>
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="n">
+        <v>44221</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
+      <c r="A12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11" t="n">
+        <f aca="false">IF(B13="","",IF(A12="Nr.",1,A12+1))</f>
+        <v>1</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>35157</v>
+      </c>
+      <c r="E13" s="11" t="n">
+        <f aca="true">IF(D13="","",com.sun.star.sheet.addin.DateFunctions.getDiffYears(D13,TODAY(),0))</f>
+        <v>26</v>
+      </c>
+      <c r="F13" s="11" t="n">
+        <f aca="false">IF(E13="","",HLOOKUP(E13,Hilfstabellen!$A$22:$C$23,2,1))</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12" t="n">
+        <f aca="false">IF(B14="","",IF(A13="Nr.",1,A13+1))</f>
+        <v>2</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>35151</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <f aca="true">IF(D14="","",com.sun.star.sheet.addin.DateFunctions.getDiffYears(D14,TODAY(),0))</f>
+        <v>26</v>
+      </c>
+      <c r="F14" s="11" t="n">
+        <f aca="false">IF(E14="","",HLOOKUP(E14,Hilfstabellen!$A$22:$C$23,2,1))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="n">
+        <f aca="false">IF(B15="","",IF(A14="Nr.",1,A14+1))</f>
+        <v>3</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>35647</v>
+      </c>
+      <c r="E15" s="11" t="n">
+        <f aca="true">IF(D15="","",com.sun.star.sheet.addin.DateFunctions.getDiffYears(D15,TODAY(),0))</f>
+        <v>24</v>
+      </c>
+      <c r="F15" s="11" t="n">
+        <f aca="false">IF(E15="","",HLOOKUP(E15,Hilfstabellen!$A$22:$C$23,2,1))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="n">
+        <f aca="false">IF(B16="","",IF(A15="Nr.",1,A15+1))</f>
+        <v>4</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>35383</v>
+      </c>
+      <c r="E16" s="11" t="n">
+        <f aca="true">IF(D16="","",com.sun.star.sheet.addin.DateFunctions.getDiffYears(D16,TODAY(),0))</f>
+        <v>25</v>
+      </c>
+      <c r="F16" s="11" t="n">
+        <f aca="false">IF(E16="","",HLOOKUP(E16,Hilfstabellen!$A$22:$C$23,2,1))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="n">
+        <f aca="false">IF(B17="","",IF(A16="Nr.",1,A16+1))</f>
+        <v>5</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>35429</v>
+      </c>
+      <c r="E17" s="11" t="n">
+        <f aca="true">IF(D17="","",com.sun.star.sheet.addin.DateFunctions.getDiffYears(D17,TODAY(),0))</f>
+        <v>25</v>
+      </c>
+      <c r="F17" s="11" t="n">
+        <f aca="false">IF(E17="","",HLOOKUP(E17,Hilfstabellen!$A$22:$C$23,2,1))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="n">
+        <f aca="false">IF(B18="","",IF(A17="Nr.",1,A17+1))</f>
+        <v>6</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>35429</v>
+      </c>
+      <c r="E18" s="11" t="n">
+        <f aca="true">IF(D18="","",com.sun.star.sheet.addin.DateFunctions.getDiffYears(D18,TODAY(),0))</f>
+        <v>25</v>
+      </c>
+      <c r="F18" s="11" t="n">
+        <f aca="false">IF(E18="","",HLOOKUP(E18,Hilfstabellen!$A$22:$C$23,2,1))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="n">
+        <f aca="false">IF(B19="","",IF(A18="Nr.",1,A18+1))</f>
+        <v>7</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>35429</v>
+      </c>
+      <c r="E19" s="11" t="n">
+        <f aca="true">IF(D19="","",com.sun.star.sheet.addin.DateFunctions.getDiffYears(D19,TODAY(),0))</f>
+        <v>25</v>
+      </c>
+      <c r="F19" s="11" t="n">
+        <f aca="false">IF(E19="","",HLOOKUP(E19,Hilfstabellen!$A$22:$C$23,2,1))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="n">
+        <f aca="false">IF(B20="","",IF(A19="Nr.",1,A19+1))</f>
+        <v>8</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>35429</v>
+      </c>
+      <c r="E20" s="11" t="n">
+        <f aca="true">IF(D20="","",com.sun.star.sheet.addin.DateFunctions.getDiffYears(D20,TODAY(),0))</f>
+        <v>25</v>
+      </c>
+      <c r="F20" s="11" t="n">
+        <f aca="false">IF(E20="","",HLOOKUP(E20,Hilfstabellen!$A$22:$C$23,2,1))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="n">
+        <f aca="false">IF(B21="","",IF(A20="Nr.",1,A20+1))</f>
+        <v>9</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>33237</v>
+      </c>
+      <c r="E21" s="11" t="n">
+        <f aca="true">IF(D21="","",com.sun.star.sheet.addin.DateFunctions.getDiffYears(D21,TODAY(),0))</f>
+        <v>31</v>
+      </c>
+      <c r="F21" s="11" t="n">
+        <f aca="false">IF(E21="","",HLOOKUP(E21,Hilfstabellen!$A$22:$C$23,2,1))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12" t="n">
+        <f aca="false">IF(B22="","",IF(A21="Nr.",1,A21+1))</f>
+        <v>10</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <v>35429</v>
+      </c>
+      <c r="E22" s="11" t="n">
+        <f aca="true">IF(D22="","",com.sun.star.sheet.addin.DateFunctions.getDiffYears(D22,TODAY(),0))</f>
+        <v>25</v>
+      </c>
+      <c r="F22" s="11" t="n">
+        <f aca="false">IF(E22="","",HLOOKUP(E22,Hilfstabellen!$A$22:$C$23,2,1))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="n">
+        <f aca="false">IF(B23="","",IF(A22="Nr.",1,A22+1))</f>
+        <v>11</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>35429</v>
+      </c>
+      <c r="E23" s="14" t="n">
+        <f aca="true">IF(D23="","",com.sun.star.sheet.addin.DateFunctions.getDiffYears(D23,TODAY(),0))</f>
+        <v>25</v>
+      </c>
+      <c r="F23" s="11" t="n">
+        <f aca="false">IF(E23="","",HLOOKUP(E23,Hilfstabellen!$A$22:$C$23,2,1))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="n">
+        <f aca="false">IF(B24="","",IF(A23="Nr.",1,A23+1))</f>
+        <v>12</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>35429</v>
+      </c>
+      <c r="E24" s="14" t="n">
+        <f aca="true">IF(D24="","",com.sun.star.sheet.addin.DateFunctions.getDiffYears(D24,TODAY(),0))</f>
+        <v>25</v>
+      </c>
+      <c r="F24" s="11" t="n">
+        <f aca="false">IF(E24="","",HLOOKUP(E24,Hilfstabellen!$A$22:$C$23,2,1))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15"/>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="11" t="n">
+        <f aca="false">MODE(F13:F24)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="18"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="6" t="n">
+        <f aca="false">B8*COUNT(A13:A24)*_xlfn.DAYS(B10,B9)+B7*_xlfn.DAYS(B10,B9)</f>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="19" t="n">
+        <f aca="false">VLOOKUP(COUNT(A13:A25),Hilfstabellen!A14:D17,MATCH(B26,Hilfstabellen!B13:D13,1)+1)</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="20" t="n">
+        <f aca="false">B29*(1-B30)</f>
+        <v>430.56</v>
+      </c>
+      <c r="C31" s="21"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="22" t="n">
+        <f aca="false">B31/COUNT(A13:A24)</f>
+        <v>35.88</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A28:B28"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6" type="list">
+      <formula1>Hilfstabellen!$A$3:$A$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B9" type="date">
+      <formula1>TODAY()</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B10" type="date">
+      <formula1>B9</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CSeite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.89"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="11" t="str">
+        <f aca="false">CONCATENATE("info.",LOWER(A3),"@ferienhäuser.at")</f>
+        <v>info.bergtraum@ferienhäuser.at</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>120</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="11" t="str">
+        <f aca="false">CONCATENATE("info.",LOWER(A4),"@ferienhäuser.at")</f>
+        <v>info.seeparadies@ferienhäuser.at</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="11" t="str">
+        <f aca="false">CONCATENATE("info.",LOWER(A5),"@ferienhäuser.at")</f>
+        <v>info.citytrip-wien@ferienhäuser.at</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15"/>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" s="19" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C14" s="19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" s="19" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C15" s="19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="19" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D16" s="19" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="19" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C17" s="19" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D17" s="19" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:C21"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CSeite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>